--- a/database/tb_user.xlsx
+++ b/database/tb_user.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,23 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>retnowardani024@gmail.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sekwan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/tb_user.xlsx
+++ b/database/tb_user.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ikram</t>
+          <t>ikram2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>angdalang789</t>
+          <t>ikram123</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sekwan</t>
+          <t>retno gaul</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>password</t>
+          <t>admin34</t>
         </is>
       </c>
     </row>

--- a/database/tb_user.xlsx
+++ b/database/tb_user.xlsx
@@ -453,34 +453,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ikdossantoscs@gmail.com</t>
+          <t>retnowardani024@gmail.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ikram2</t>
+          <t>sekwan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ikram123</t>
+          <t>gaul</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>retnowardani024@gmail.com</t>
+          <t>ikdossantoscs@gmail.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>retno gaul</t>
+          <t>ikram</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>admin34</t>
+          <t>ikram123</t>
         </is>
       </c>
     </row>

--- a/database/tb_user.xlsx
+++ b/database/tb_user.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,34 +453,68 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>retnowardani024@gmail.com</t>
+          <t>ikdossantoscs@gmail.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sekwan</t>
+          <t>ikram</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gaul</t>
+          <t>ikram123</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>retnowardani024@gmail.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>retno</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>retno123</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>revalinarmdhni@gmail.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Revalina Ramadhani</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>alin1510</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>ikdossantoscs@gmail.com</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>ikram</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ikram123</t>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>spk123</t>
         </is>
       </c>
     </row>
